--- a/4월 로드맵.xlsx
+++ b/4월 로드맵.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TS\Desktop\wa 문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TS\Desktop\wa!\WA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5BA567-8535-4C4A-9B32-61853A264143}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444B34E0-A5D3-44F4-A988-CAABE29D05CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22830" yWindow="3900" windowWidth="18000" windowHeight="9360" xr2:uid="{3A0563DD-8AED-4E0E-B575-756D513215A4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>태성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,19 +72,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>계속해서 해야하는것</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터 기능 구현 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>초기 점프레벨 제작, 룸관리 시스템 기획서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본 퍼즐 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기 점프레벨 제작, 룸관리 시스템 기획서, UI 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -250,14 +246,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -281,6 +271,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -600,81 +596,78 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.875" customWidth="1"/>
     <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" s="12" customFormat="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/4월 로드맵.xlsx
+++ b/4월 로드맵.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TS\Desktop\wa!\WA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444B34E0-A5D3-44F4-A988-CAABE29D05CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3FBDD5-AA47-4C2D-AADC-44F3F675D008}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22830" yWindow="3900" windowWidth="18000" windowHeight="9360" xr2:uid="{3A0563DD-8AED-4E0E-B575-756D513215A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A0563DD-8AED-4E0E-B575-756D513215A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>태성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,11 +76,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본 퍼즐 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>초기 점프레벨 제작, 룸관리 시스템 기획서, UI 기획서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 퍼즐 기능 구현, 룸 시스템 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 장애물 기획서, 스테이지2 레벨 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지1 스토리 연출, 장애물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 조정, 스테이지2 보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스카이 박스 제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,19 +209,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,14 +255,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -261,22 +277,31 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -596,29 +621,29 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="22.875" customWidth="1"/>
-    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1">
+    <row r="1" spans="1:5" s="9" customFormat="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -627,44 +652,52 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1"/>

--- a/4월 로드맵.xlsx
+++ b/4월 로드맵.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TS\Desktop\wa!\WA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3FBDD5-AA47-4C2D-AADC-44F3F675D008}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B794C354-7CF6-47B5-AF8D-C2CAAD8D43C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A0563DD-8AED-4E0E-B575-756D513215A4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>태성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,35 +68,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어 캐릭터 모델, UI출력할 표정 프리셋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터 기능 구현 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>초기 점프레벨 제작, 룸관리 시스템 기획서, UI 기획서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 퍼즐 기능 구현, 룸 시스템 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 장애물 기획서, 스테이지2 레벨 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스테이지1 스토리 연출, 장애물</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카메라 조정, 스테이지2 보스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스카이 박스 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 캐릭터 모델, UI 표정 프리셋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지1 레벨 제작, 룸관리 시스템 기획서, UI 기획서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간고사 시즌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 1주차(~5/9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 2주차(~5/16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 퍼즐 기능 구현, 룸 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지2: 레벨 제작, 보스 전투 기획서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라, 퍼즐: 움직이는 박스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 저장 및 불러오기, 타이틀 씬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지2: 보스 전투 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애물 기획서 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지3: 레벨 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼즐요소 모델</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -176,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,12 +241,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -225,8 +251,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -249,22 +293,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -277,32 +398,65 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,96 +772,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACBAF39-2A4E-4C41-87F0-8F2E49585EFF}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.875" customWidth="1"/>
-    <col min="4" max="4" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.125" customWidth="1"/>
+    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1">
+      <c r="A1" s="14"/>
+      <c r="B1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="24" t="s">
         <v>7</v>
       </c>
+      <c r="F1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4"/>
+      <c r="F5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4"/>
+    <row r="6" spans="1:8">
+      <c r="D6" s="23" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+      <c r="D7" s="19"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15" t="s">
-        <v>15</v>
-      </c>
+    <row r="8" spans="1:8">
+      <c r="D8" s="19"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
+    <row r="9" spans="1:8">
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="D10" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
